--- a/08c.xlsx
+++ b/08c.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hiros-h\Documents\【連載】デジタルアドバンテージ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hiros-h/Documents/【連載】デジタルアドバンテージ/第8回/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFB52412-462A-4E5A-B991-FF017C2B7251}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4655ED4B-1E38-8048-86C0-054E3D7A1F31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2573" yWindow="2573" windowWidth="28800" windowHeight="16199" xr2:uid="{1C1F448F-9139-4435-A5CD-6CC57C87085A}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="28800" windowHeight="16200" xr2:uid="{1C1F448F-9139-4435-A5CD-6CC57C87085A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>年</t>
     <rPh sb="0" eb="1">
@@ -67,12 +67,16 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>出典：警視庁（https://www.e-stat.go.jp/stat-search/file-download?statInfId=000040031021&amp;fileKind=2）</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1456,23 +1460,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{546C9F30-6EE5-48EA-B100-C3B4B5A91A73}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.7">
+    <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -1480,7 +1487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.7">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>2012</v>
       </c>
@@ -1488,7 +1495,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.7">
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>2013</v>
       </c>
@@ -1496,7 +1503,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.7">
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>2014</v>
       </c>
@@ -1504,7 +1511,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.7">
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>2015</v>
       </c>
@@ -1512,7 +1519,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.7">
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>2016</v>
       </c>
@@ -1520,7 +1527,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.7">
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>2017</v>
       </c>
@@ -1528,7 +1535,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.7">
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>2018</v>
       </c>
@@ -1536,7 +1543,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.7">
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>2019</v>
       </c>
@@ -1544,7 +1551,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.7">
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>2020</v>
       </c>
@@ -1552,7 +1559,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.7">
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>2021</v>
       </c>
@@ -1560,7 +1567,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.7">
+    <row r="14" spans="1:6">
       <c r="A14" s="3">
         <v>2022</v>
       </c>
